--- a/days.xlsx
+++ b/days.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\healthmug data\Gaurav\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5429D61D-4052-4A06-93EC-B43624B999F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{94C91BDB-0A7D-417E-95AD-9FF5BA7C71F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Rose Day</t>
   </si>
@@ -116,11 +110,17 @@
   <si>
     <t>Teddies are the cutest gift to be given to your beloved person. They can be cuddled when we miss someone.</t>
   </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Make this valentine week special for your loved one. Choose message for each day and share that with your partner.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -285,7 +285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -479,18 +479,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D089B557-5BDD-492A-A91C-EE26469859D2}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C8" si="0">LEN(B2)</f>
+        <f t="shared" ref="C2:C9" si="0">LEN(B2)</f>
         <v>89</v>
       </c>
     </row>
@@ -593,6 +593,18 @@
       <c r="C8">
         <f t="shared" si="0"/>
         <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
